--- a/public/assets/excel/orderwing/ownerclan/order_20240110.xlsx
+++ b/public/assets/excel/orderwing/ownerclan/order_20240110.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="126">
   <si>
     <t>일자</t>
   </si>
@@ -116,6 +116,99 @@
     <t>2024/01/10</t>
   </si>
   <si>
+    <t>코코몬스터</t>
+  </si>
+  <si>
+    <t>010-2024-3699</t>
+  </si>
+  <si>
+    <t>(주)이상(17DA1)</t>
+  </si>
+  <si>
+    <t>010-5590-7487</t>
+  </si>
+  <si>
+    <t>41238</t>
+  </si>
+  <si>
+    <t>대구광역시 동구 화랑로 109 (효목동) 5층 (주)이상</t>
+  </si>
+  <si>
+    <t>동우 환풍기 자동개폐식 DWV200DRA 03174 TYPE 1</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>26439</t>
+  </si>
+  <si>
+    <t>3500</t>
+  </si>
+  <si>
+    <t>29939</t>
+  </si>
+  <si>
+    <t>2024011012133753374A</t>
+  </si>
+  <si>
+    <t>WDADA28</t>
+  </si>
+  <si>
+    <t>선불</t>
+  </si>
+  <si>
+    <t xml:space="preserve">문 앞에 놓아주세요 </t>
+  </si>
+  <si>
+    <t>7L0GA</t>
+  </si>
+  <si>
+    <t>센스토어</t>
+  </si>
+  <si>
+    <t>070-8803-7770</t>
+  </si>
+  <si>
+    <t>송인화(24B)</t>
+  </si>
+  <si>
+    <t>010-4633-6704</t>
+  </si>
+  <si>
+    <t>54834</t>
+  </si>
+  <si>
+    <t xml:space="preserve">전라북도 전주시 덕진구 송천2길 20 (비사벌아파트) 16/505 </t>
+  </si>
+  <si>
+    <t>엠디프라임 황토 어깨 냉 온찜질팩 다용도찜</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>10005</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>33015</t>
+  </si>
+  <si>
+    <t>2024011011190157957A</t>
+  </si>
+  <si>
+    <t>WDB4383</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>HPK8Q</t>
+  </si>
+  <si>
     <t>포유스필마</t>
   </si>
   <si>
@@ -143,9 +236,6 @@
     <t>671</t>
   </si>
   <si>
-    <t>3500</t>
-  </si>
-  <si>
     <t>16920</t>
   </si>
   <si>
@@ -155,9 +245,6 @@
     <t>WD9B4B5</t>
   </si>
   <si>
-    <t>선불</t>
-  </si>
-  <si>
     <t>문 앞</t>
   </si>
   <si>
@@ -200,9 +287,6 @@
     <t>WDA2471</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>ROGAC</t>
   </si>
   <si>
@@ -228,9 +312,6 @@
   </si>
   <si>
     <t>카누 바닐라 라떼173g8T 동서식품</t>
-  </si>
-  <si>
-    <t>3</t>
   </si>
   <si>
     <t>4719</t>
@@ -650,7 +731,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:AF6"/>
+  <dimension ref="A1:AF8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -828,13 +909,13 @@
       <c r="AA2"/>
       <c r="AB2"/>
       <c r="AC2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AD2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AE2">
-        <v>40</v>
+        <v>1</v>
       </c>
       <c r="AF2"/>
     </row>
@@ -877,29 +958,29 @@
         <v>57</v>
       </c>
       <c r="N3" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="P3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" t="s">
         <v>46</v>
       </c>
       <c r="S3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T3"/>
       <c r="U3">
         <v>1</v>
       </c>
       <c r="V3" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W3"/>
       <c r="X3">
@@ -910,19 +991,19 @@
       <c r="AA3"/>
       <c r="AB3"/>
       <c r="AC3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AD3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AE3">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="AF3"/>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>64</v>
@@ -973,13 +1054,15 @@
       <c r="R4" t="s">
         <v>46</v>
       </c>
-      <c r="S4"/>
+      <c r="S4" t="s">
+        <v>76</v>
+      </c>
       <c r="T4"/>
       <c r="U4">
         <v>2</v>
       </c>
       <c r="V4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4"/>
       <c r="X4">
@@ -990,76 +1073,78 @@
       <c r="AA4"/>
       <c r="AB4"/>
       <c r="AC4">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AD4">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AE4">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="AF4"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I5" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="K5"/>
       <c r="L5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="M5" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="N5" t="s">
         <v>42</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="Q5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="R5" t="s">
         <v>46</v>
       </c>
-      <c r="S5"/>
+      <c r="S5" t="s">
+        <v>62</v>
+      </c>
       <c r="T5"/>
       <c r="U5">
         <v>3</v>
       </c>
       <c r="V5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="W5"/>
       <c r="X5">
@@ -1070,78 +1155,76 @@
       <c r="AA5"/>
       <c r="AB5"/>
       <c r="AC5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AD5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AE5">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="AF5"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D6" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="F6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G6" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="H6" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="I6" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J6" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K6"/>
       <c r="L6" t="s">
-        <v>92</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N6" t="s">
         <v>42</v>
       </c>
       <c r="O6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="P6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="Q6" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="R6" t="s">
         <v>46</v>
       </c>
-      <c r="S6" t="s">
-        <v>97</v>
-      </c>
+      <c r="S6"/>
       <c r="T6"/>
       <c r="U6">
         <v>4</v>
       </c>
       <c r="V6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="W6"/>
       <c r="X6">
@@ -1152,15 +1235,177 @@
       <c r="AA6"/>
       <c r="AB6"/>
       <c r="AC6">
+        <v>22</v>
+      </c>
+      <c r="AD6">
+        <v>22</v>
+      </c>
+      <c r="AE6">
+        <v>22</v>
+      </c>
+      <c r="AF6"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H7" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" t="s">
+        <v>107</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>108</v>
+      </c>
+      <c r="M7" t="s">
+        <v>99</v>
+      </c>
+      <c r="N7" t="s">
+        <v>42</v>
+      </c>
+      <c r="O7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>102</v>
+      </c>
+      <c r="R7" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7"/>
+      <c r="T7"/>
+      <c r="U7">
+        <v>5</v>
+      </c>
+      <c r="V7" t="s">
+        <v>103</v>
+      </c>
+      <c r="W7"/>
+      <c r="X7">
+        <v>1</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
+      <c r="AA7"/>
+      <c r="AB7"/>
+      <c r="AC7">
+        <v>22</v>
+      </c>
+      <c r="AD7">
+        <v>22</v>
+      </c>
+      <c r="AE7">
+        <v>22</v>
+      </c>
+      <c r="AF7"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" t="s">
+        <v>115</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>117</v>
+      </c>
+      <c r="J8" t="s">
+        <v>118</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>119</v>
+      </c>
+      <c r="M8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P8" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>123</v>
+      </c>
+      <c r="R8" t="s">
+        <v>46</v>
+      </c>
+      <c r="S8" t="s">
+        <v>124</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8" t="s">
+        <v>125</v>
+      </c>
+      <c r="W8"/>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8"/>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+      <c r="AC8">
         <v>2</v>
       </c>
-      <c r="AD6">
+      <c r="AD8">
         <v>2</v>
       </c>
-      <c r="AE6">
+      <c r="AE8">
         <v>2</v>
       </c>
-      <c r="AF6"/>
+      <c r="AF8"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
